--- a/앱스토어 구조 설계도.xlsx
+++ b/앱스토어 구조 설계도.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJJ\Desktop\이종운 취업\앱스토어 포트폴리오 가공\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D080C-0A13-4DF7-A3E0-B2BF26B523AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE8FE7-7EC8-4826-9177-52D72ACFC9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDB6F99E-96D3-4CE8-83C5-1C84260FDB91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="앱스토어 구조 설계도" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -561,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +577,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +597,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,13 +649,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,6 +667,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFACB9CA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -979,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829460F9-9940-4674-880B-D7DA0C3AECBA}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,46 +1020,46 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1048,11 +1071,11 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1064,11 +1087,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1078,11 +1101,11 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1092,11 +1115,11 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1106,11 +1129,11 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1120,11 +1143,11 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1136,11 +1159,11 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1150,11 +1173,11 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +1187,11 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1178,11 +1201,11 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1192,11 +1215,11 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1206,11 +1229,11 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1220,11 +1243,11 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1234,10 +1257,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1252,11 +1275,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1270,10 +1293,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1284,13 +1307,13 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1302,11 +1325,11 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1316,11 +1339,11 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1330,11 +1353,11 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1344,11 +1367,11 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1358,11 +1381,11 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1372,11 +1395,11 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1386,11 +1409,11 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1400,11 +1423,11 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1418,11 +1441,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1434,11 +1457,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1448,11 +1471,11 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1464,11 +1487,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1478,13 +1501,13 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1494,11 +1517,11 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1508,11 +1531,11 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1522,11 +1545,11 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1536,11 +1559,11 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1550,13 +1573,13 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="3" t="s">
         <v>49</v>
       </c>
@@ -1566,13 +1589,13 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1584,11 +1607,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1600,11 +1623,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1616,11 +1639,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1632,11 +1655,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1648,17 +1671,17 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
         <v>50</v>
       </c>
@@ -1668,11 +1691,11 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
         <v>51</v>
       </c>
@@ -1682,11 +1705,11 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="3" t="s">
         <v>52</v>
       </c>
@@ -1696,11 +1719,11 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
         <v>53</v>
       </c>
@@ -1710,13 +1733,13 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="3" t="s">
         <v>54</v>
       </c>
@@ -1726,11 +1749,11 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="3" t="s">
         <v>55</v>
       </c>
@@ -1740,11 +1763,11 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
         <v>56</v>
       </c>
@@ -1754,11 +1777,11 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="3" t="s">
         <v>57</v>
       </c>
@@ -1769,22 +1792,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D47:E50"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C38:E42"/>
-    <mergeCell ref="D43:E46"/>
-    <mergeCell ref="D32:E36"/>
-    <mergeCell ref="A2:A50"/>
-    <mergeCell ref="C2:C37"/>
-    <mergeCell ref="B2:B42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B43:B50"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="D2:D18"/>
     <mergeCell ref="E19:E26"/>
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="D19:D31"/>
+    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="C2:C37"/>
+    <mergeCell ref="B2:B42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="D47:E50"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C38:E42"/>
+    <mergeCell ref="D43:E46"/>
+    <mergeCell ref="D32:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
